--- a/TODO/Conception/Utiles/données/LISTE EMPLOYE POUR MISSION.xlsx
+++ b/TODO/Conception/Utiles/données/LISTE EMPLOYE POUR MISSION.xlsx
@@ -1,35 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20417"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\STAGE\GESTION-RH\TODO\Conception\Utiles\données\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{208B701E-4B0D-41CE-90BE-EC2135990A1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B32F173-FE8C-41AC-A0F5-71F955E03D57}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{37A37647-03A3-4781-B778-9CE735A6AC1D}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
+    <sheet name="Feuil2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -4304,7 +4294,7 @@
     <numFmt numFmtId="164" formatCode="0000"/>
     <numFmt numFmtId="165" formatCode="0##&quot; &quot;##&quot; &quot;###&quot; &quot;##"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -4795,30 +4785,30 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2289439D-3BC7-4856-A8AC-E5D4EC00219A}">
   <dimension ref="A1:P462"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView tabSelected="1" topLeftCell="A433" workbookViewId="0">
+      <selection activeCell="A446" sqref="A446:XFD446"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="2" width="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="41.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="26.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.21875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.77734375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.33203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="34.88671875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.44140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="33.109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="34.33203125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="9.21875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="41.6875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.3125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.25" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.6875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.3125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="34.875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.4375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.5625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="33.125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="34.3125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9.25" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="11.6875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="39.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" ht="39.4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4868,7 +4858,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:16">
       <c r="A2" s="8" t="s">
         <v>16</v>
       </c>
@@ -4918,7 +4908,7 @@
         <v>44561</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:16">
       <c r="A3" s="8" t="s">
         <v>16</v>
       </c>
@@ -4966,7 +4956,7 @@
         <v>42867</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:16">
       <c r="A4" s="8" t="s">
         <v>16</v>
       </c>
@@ -5016,7 +5006,7 @@
         <v>44740</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:16">
       <c r="A5" s="8" t="s">
         <v>16</v>
       </c>
@@ -5066,7 +5056,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:16">
       <c r="A6" s="8" t="s">
         <v>16</v>
       </c>
@@ -5116,7 +5106,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:16">
       <c r="A7" s="8" t="s">
         <v>16</v>
       </c>
@@ -5166,7 +5156,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:16">
       <c r="A8" s="8" t="s">
         <v>16</v>
       </c>
@@ -5214,7 +5204,7 @@
         <v>42918</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:16">
       <c r="A9" s="8" t="s">
         <v>16</v>
       </c>
@@ -5264,7 +5254,7 @@
         <v>44960</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:16">
       <c r="A10" s="8" t="s">
         <v>16</v>
       </c>
@@ -5314,7 +5304,7 @@
         <v>45197</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:16">
       <c r="A11" s="8" t="s">
         <v>16</v>
       </c>
@@ -5364,7 +5354,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:16">
       <c r="A12" s="8" t="s">
         <v>16</v>
       </c>
@@ -5414,7 +5404,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:16">
       <c r="A13" s="8" t="s">
         <v>16</v>
       </c>
@@ -5464,7 +5454,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:16">
       <c r="A14" s="8" t="s">
         <v>16</v>
       </c>
@@ -5512,7 +5502,7 @@
         <v>44408</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:16">
       <c r="A15" s="8" t="s">
         <v>16</v>
       </c>
@@ -5560,7 +5550,7 @@
         <v>43281</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:16">
       <c r="A16" s="8" t="s">
         <v>16</v>
       </c>
@@ -5608,7 +5598,7 @@
         <v>43220</v>
       </c>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:16">
       <c r="A17" s="8" t="s">
         <v>16</v>
       </c>
@@ -5658,7 +5648,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:16">
       <c r="A18" s="8" t="s">
         <v>16</v>
       </c>
@@ -5708,7 +5698,7 @@
         <v>43881</v>
       </c>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:16">
       <c r="A19" s="8" t="s">
         <v>16</v>
       </c>
@@ -5758,7 +5748,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:16">
       <c r="A20" s="8" t="s">
         <v>131</v>
       </c>
@@ -5808,7 +5798,7 @@
         <v>43047</v>
       </c>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:16">
       <c r="A21" s="8" t="s">
         <v>16</v>
       </c>
@@ -5858,7 +5848,7 @@
         <v>44779</v>
       </c>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:16">
       <c r="A22" s="8" t="s">
         <v>16</v>
       </c>
@@ -5908,7 +5898,7 @@
         <v>43646</v>
       </c>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:16">
       <c r="A23" s="8" t="s">
         <v>16</v>
       </c>
@@ -5956,7 +5946,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:16">
       <c r="A24" s="8" t="s">
         <v>16</v>
       </c>
@@ -6006,7 +5996,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:16">
       <c r="A25" s="8" t="s">
         <v>16</v>
       </c>
@@ -6056,7 +6046,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:16">
       <c r="A26" s="8" t="s">
         <v>16</v>
       </c>
@@ -6106,7 +6096,7 @@
         <v>45473</v>
       </c>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:16">
       <c r="A27" s="8" t="s">
         <v>16</v>
       </c>
@@ -6156,7 +6146,7 @@
         <v>45291</v>
       </c>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:16">
       <c r="A28" s="8" t="s">
         <v>16</v>
       </c>
@@ -6206,7 +6196,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:16">
       <c r="A29" s="8" t="s">
         <v>16</v>
       </c>
@@ -6254,7 +6244,7 @@
         <v>43968</v>
       </c>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:16">
       <c r="A30" s="8" t="s">
         <v>16</v>
       </c>
@@ -6302,7 +6292,7 @@
         <v>43147</v>
       </c>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:16">
       <c r="A31" s="8" t="s">
         <v>16</v>
       </c>
@@ -6352,7 +6342,7 @@
         <v>44012</v>
       </c>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:16">
       <c r="A32" s="8" t="s">
         <v>16</v>
       </c>
@@ -6402,7 +6392,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:16">
       <c r="A33" s="8" t="s">
         <v>16</v>
       </c>
@@ -6452,7 +6442,7 @@
         <v>43968</v>
       </c>
     </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:16">
       <c r="A34" s="8" t="s">
         <v>131</v>
       </c>
@@ -6500,7 +6490,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:16">
       <c r="A35" s="8" t="s">
         <v>16</v>
       </c>
@@ -6550,7 +6540,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:16">
       <c r="A36" s="8" t="s">
         <v>16</v>
       </c>
@@ -6600,7 +6590,7 @@
         <v>44377</v>
       </c>
     </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:16">
       <c r="A37" s="8" t="s">
         <v>16</v>
       </c>
@@ -6650,7 +6640,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:16">
       <c r="A38" s="8" t="s">
         <v>16</v>
       </c>
@@ -6700,7 +6690,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:16">
       <c r="A39" s="8" t="s">
         <v>16</v>
       </c>
@@ -6750,7 +6740,7 @@
         <v>43138</v>
       </c>
     </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:16">
       <c r="A40" s="8" t="s">
         <v>16</v>
       </c>
@@ -6798,7 +6788,7 @@
         <v>45838</v>
       </c>
     </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:16">
       <c r="A41" s="8" t="s">
         <v>16</v>
       </c>
@@ -6848,7 +6838,7 @@
         <v>43968</v>
       </c>
     </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:16">
       <c r="A42" s="8" t="s">
         <v>16</v>
       </c>
@@ -6898,7 +6888,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:16">
       <c r="A43" s="8" t="s">
         <v>16</v>
       </c>
@@ -6948,7 +6938,7 @@
         <v>45473</v>
       </c>
     </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:16">
       <c r="A44" s="8" t="s">
         <v>16</v>
       </c>
@@ -6998,7 +6988,7 @@
         <v>45473</v>
       </c>
     </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:16">
       <c r="A45" s="8" t="s">
         <v>16</v>
       </c>
@@ -7048,7 +7038,7 @@
         <v>43362</v>
       </c>
     </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:16">
       <c r="A46" s="8" t="s">
         <v>16</v>
       </c>
@@ -7098,7 +7088,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:16">
       <c r="A47" s="8" t="s">
         <v>16</v>
       </c>
@@ -7146,7 +7136,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:16">
       <c r="A48" s="8" t="s">
         <v>16</v>
       </c>
@@ -7196,7 +7186,7 @@
         <v>43978</v>
       </c>
     </row>
-    <row r="49" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:16">
       <c r="A49" s="8" t="s">
         <v>16</v>
       </c>
@@ -7246,7 +7236,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="50" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:16">
       <c r="A50" s="8" t="s">
         <v>16</v>
       </c>
@@ -7296,7 +7286,7 @@
         <v>45291</v>
       </c>
     </row>
-    <row r="51" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:16">
       <c r="A51" s="8" t="s">
         <v>16</v>
       </c>
@@ -7346,7 +7336,7 @@
         <v>45107</v>
       </c>
     </row>
-    <row r="52" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:16">
       <c r="A52" s="8" t="s">
         <v>16</v>
       </c>
@@ -7396,7 +7386,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="53" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:16">
       <c r="A53" s="8" t="s">
         <v>16</v>
       </c>
@@ -7446,7 +7436,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="54" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:16">
       <c r="A54" s="8" t="s">
         <v>16</v>
       </c>
@@ -7496,7 +7486,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="55" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:16">
       <c r="A55" s="8" t="s">
         <v>16</v>
       </c>
@@ -7546,7 +7536,7 @@
         <v>44260</v>
       </c>
     </row>
-    <row r="56" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:16">
       <c r="A56" s="8" t="s">
         <v>16</v>
       </c>
@@ -7596,7 +7586,7 @@
         <v>43646</v>
       </c>
     </row>
-    <row r="57" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:16">
       <c r="A57" s="8" t="s">
         <v>16</v>
       </c>
@@ -7646,7 +7636,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="58" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:16">
       <c r="A58" s="8" t="s">
         <v>131</v>
       </c>
@@ -7694,7 +7684,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="59" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:16">
       <c r="A59" s="8" t="s">
         <v>131</v>
       </c>
@@ -7742,7 +7732,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="60" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:16">
       <c r="A60" s="8" t="s">
         <v>131</v>
       </c>
@@ -7790,7 +7780,7 @@
         <v>45473</v>
       </c>
     </row>
-    <row r="61" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:16">
       <c r="A61" s="8" t="s">
         <v>16</v>
       </c>
@@ -7840,7 +7830,7 @@
         <v>44561</v>
       </c>
     </row>
-    <row r="62" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:16">
       <c r="A62" s="8" t="s">
         <v>16</v>
       </c>
@@ -7890,7 +7880,7 @@
         <v>44926</v>
       </c>
     </row>
-    <row r="63" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:16">
       <c r="A63" s="8" t="s">
         <v>16</v>
       </c>
@@ -7940,7 +7930,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="64" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:16">
       <c r="A64" s="8" t="s">
         <v>16</v>
       </c>
@@ -7990,7 +7980,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="65" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:16">
       <c r="A65" s="8" t="s">
         <v>16</v>
       </c>
@@ -8040,7 +8030,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="66" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:16">
       <c r="A66" s="8" t="s">
         <v>16</v>
       </c>
@@ -8090,7 +8080,7 @@
         <v>44263</v>
       </c>
     </row>
-    <row r="67" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:16">
       <c r="A67" s="8" t="s">
         <v>16</v>
       </c>
@@ -8140,7 +8130,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="68" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:16">
       <c r="A68" s="8" t="s">
         <v>16</v>
       </c>
@@ -8186,7 +8176,7 @@
       </c>
       <c r="P68" s="14"/>
     </row>
-    <row r="69" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:16">
       <c r="A69" s="8" t="s">
         <v>16</v>
       </c>
@@ -8236,7 +8226,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="70" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:16">
       <c r="A70" s="8" t="s">
         <v>16</v>
       </c>
@@ -8286,7 +8276,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="71" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:16">
       <c r="A71" s="8" t="s">
         <v>16</v>
       </c>
@@ -8336,7 +8326,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="72" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:16">
       <c r="A72" s="8" t="s">
         <v>16</v>
       </c>
@@ -8386,7 +8376,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="73" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:16">
       <c r="A73" s="8" t="s">
         <v>16</v>
       </c>
@@ -8436,7 +8426,7 @@
         <v>45838</v>
       </c>
     </row>
-    <row r="74" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:16">
       <c r="A74" s="8" t="s">
         <v>16</v>
       </c>
@@ -8486,7 +8476,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="75" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:16">
       <c r="A75" s="8" t="s">
         <v>16</v>
       </c>
@@ -8534,7 +8524,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="76" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:16">
       <c r="A76" s="8" t="s">
         <v>16</v>
       </c>
@@ -8582,7 +8572,7 @@
         <v>44135</v>
       </c>
     </row>
-    <row r="77" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:16">
       <c r="A77" s="8" t="s">
         <v>16</v>
       </c>
@@ -8632,7 +8622,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="78" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:16">
       <c r="A78" s="8" t="s">
         <v>16</v>
       </c>
@@ -8680,7 +8670,7 @@
         <v>44773</v>
       </c>
     </row>
-    <row r="79" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:16">
       <c r="A79" s="8" t="s">
         <v>16</v>
       </c>
@@ -8730,7 +8720,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="80" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:16">
       <c r="A80" s="8" t="s">
         <v>16</v>
       </c>
@@ -8780,7 +8770,7 @@
         <v>45764</v>
       </c>
     </row>
-    <row r="81" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:16">
       <c r="A81" s="8" t="s">
         <v>16</v>
       </c>
@@ -8828,7 +8818,7 @@
         <v>43108</v>
       </c>
     </row>
-    <row r="82" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:16">
       <c r="A82" s="8" t="s">
         <v>16</v>
       </c>
@@ -8878,7 +8868,7 @@
         <v>45838</v>
       </c>
     </row>
-    <row r="83" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:16">
       <c r="A83" s="8" t="s">
         <v>16</v>
       </c>
@@ -8928,7 +8918,7 @@
         <v>43269</v>
       </c>
     </row>
-    <row r="84" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:16">
       <c r="A84" s="8" t="s">
         <v>16</v>
       </c>
@@ -8976,7 +8966,7 @@
         <v>44246</v>
       </c>
     </row>
-    <row r="85" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:16">
       <c r="A85" s="8" t="s">
         <v>16</v>
       </c>
@@ -9026,7 +9016,7 @@
         <v>44926</v>
       </c>
     </row>
-    <row r="86" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:16">
       <c r="A86" s="8" t="s">
         <v>16</v>
       </c>
@@ -9076,7 +9066,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="87" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:16">
       <c r="A87" s="8" t="s">
         <v>16</v>
       </c>
@@ -9126,7 +9116,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="88" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:16">
       <c r="A88" s="8" t="s">
         <v>16</v>
       </c>
@@ -9176,7 +9166,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="89" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:16">
       <c r="A89" s="8" t="s">
         <v>16</v>
       </c>
@@ -9226,7 +9216,7 @@
         <v>44258</v>
       </c>
     </row>
-    <row r="90" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:16">
       <c r="A90" s="8" t="s">
         <v>16</v>
       </c>
@@ -9276,7 +9266,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="91" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:16">
       <c r="A91" s="8" t="s">
         <v>16</v>
       </c>
@@ -9326,7 +9316,7 @@
         <v>42849</v>
       </c>
     </row>
-    <row r="92" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:16">
       <c r="A92" s="8" t="s">
         <v>16</v>
       </c>
@@ -9376,7 +9366,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="93" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:16">
       <c r="A93" s="8" t="s">
         <v>131</v>
       </c>
@@ -9424,7 +9414,7 @@
         <v>43918</v>
       </c>
     </row>
-    <row r="94" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:16">
       <c r="A94" s="8" t="s">
         <v>131</v>
       </c>
@@ -9472,7 +9462,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="95" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:16">
       <c r="A95" s="8" t="s">
         <v>16</v>
       </c>
@@ -9522,7 +9512,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="96" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:16">
       <c r="A96" s="8" t="s">
         <v>131</v>
       </c>
@@ -9570,7 +9560,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="97" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:16">
       <c r="A97" s="8" t="s">
         <v>131</v>
       </c>
@@ -9618,7 +9608,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="98" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:16">
       <c r="A98" s="8" t="s">
         <v>131</v>
       </c>
@@ -9666,7 +9656,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="99" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:16">
       <c r="A99" s="8" t="s">
         <v>131</v>
       </c>
@@ -9714,7 +9704,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="100" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:16">
       <c r="A100" s="8" t="s">
         <v>16</v>
       </c>
@@ -9762,7 +9752,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="101" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:16">
       <c r="A101" s="8" t="s">
         <v>16</v>
       </c>
@@ -9812,7 +9802,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="102" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:16">
       <c r="A102" s="8" t="s">
         <v>16</v>
       </c>
@@ -9862,7 +9852,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="103" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:16">
       <c r="A103" s="8" t="s">
         <v>16</v>
       </c>
@@ -9912,7 +9902,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="104" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:16">
       <c r="A104" s="8" t="s">
         <v>16</v>
       </c>
@@ -9962,7 +9952,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="105" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:16">
       <c r="A105" s="8" t="s">
         <v>16</v>
       </c>
@@ -10012,7 +10002,7 @@
         <v>43130</v>
       </c>
     </row>
-    <row r="106" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:16">
       <c r="A106" s="8" t="s">
         <v>16</v>
       </c>
@@ -10062,7 +10052,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="107" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:16">
       <c r="A107" s="8" t="s">
         <v>16</v>
       </c>
@@ -10112,7 +10102,7 @@
         <v>45168</v>
       </c>
     </row>
-    <row r="108" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:16">
       <c r="A108" s="8" t="s">
         <v>16</v>
       </c>
@@ -10162,7 +10152,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="109" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:16">
       <c r="A109" s="8" t="s">
         <v>16</v>
       </c>
@@ -10212,7 +10202,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="110" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:16">
       <c r="A110" s="8" t="s">
         <v>16</v>
       </c>
@@ -10262,7 +10252,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="111" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:16">
       <c r="A111" s="8" t="s">
         <v>16</v>
       </c>
@@ -10312,7 +10302,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="112" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:16">
       <c r="A112" s="8" t="s">
         <v>16</v>
       </c>
@@ -10362,7 +10352,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="113" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:16">
       <c r="A113" s="8" t="s">
         <v>16</v>
       </c>
@@ -10410,7 +10400,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="114" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:16">
       <c r="A114" s="8" t="s">
         <v>16</v>
       </c>
@@ -10460,7 +10450,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="115" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:16">
       <c r="A115" s="8" t="s">
         <v>16</v>
       </c>
@@ -10510,7 +10500,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="116" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:16">
       <c r="A116" s="8" t="s">
         <v>16</v>
       </c>
@@ -10560,7 +10550,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="117" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:16">
       <c r="A117" s="8" t="s">
         <v>16</v>
       </c>
@@ -10610,7 +10600,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="118" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:16">
       <c r="A118" s="8" t="s">
         <v>16</v>
       </c>
@@ -10660,7 +10650,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="119" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:16">
       <c r="A119" s="8" t="s">
         <v>16</v>
       </c>
@@ -10710,7 +10700,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="120" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:16">
       <c r="A120" s="8" t="s">
         <v>131</v>
       </c>
@@ -10760,7 +10750,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="121" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:16">
       <c r="A121" s="8" t="s">
         <v>16</v>
       </c>
@@ -10810,7 +10800,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="122" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:16">
       <c r="A122" s="8" t="s">
         <v>16</v>
       </c>
@@ -10860,7 +10850,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="123" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:16">
       <c r="A123" s="8" t="s">
         <v>16</v>
       </c>
@@ -10910,7 +10900,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="124" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:16">
       <c r="A124" s="8" t="s">
         <v>16</v>
       </c>
@@ -10960,7 +10950,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="125" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:16">
       <c r="A125" s="8" t="s">
         <v>16</v>
       </c>
@@ -11010,7 +11000,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="126" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:16">
       <c r="A126" s="8" t="s">
         <v>16</v>
       </c>
@@ -11060,7 +11050,7 @@
         <v>44236</v>
       </c>
     </row>
-    <row r="127" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:16">
       <c r="A127" s="8" t="s">
         <v>16</v>
       </c>
@@ -11110,7 +11100,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="128" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:16">
       <c r="A128" s="8" t="s">
         <v>16</v>
       </c>
@@ -11160,7 +11150,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="129" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:16">
       <c r="A129" s="8" t="s">
         <v>16</v>
       </c>
@@ -11210,7 +11200,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="130" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:16">
       <c r="A130" s="8" t="s">
         <v>16</v>
       </c>
@@ -11260,7 +11250,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="131" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:16">
       <c r="A131" s="8" t="s">
         <v>16</v>
       </c>
@@ -11310,7 +11300,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="132" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:16">
       <c r="A132" s="8" t="s">
         <v>131</v>
       </c>
@@ -11360,7 +11350,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="133" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:16">
       <c r="A133" s="8" t="s">
         <v>16</v>
       </c>
@@ -11410,7 +11400,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="134" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:16">
       <c r="A134" s="8" t="s">
         <v>16</v>
       </c>
@@ -11460,7 +11450,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="135" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:16">
       <c r="A135" s="8" t="s">
         <v>16</v>
       </c>
@@ -11510,7 +11500,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="136" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:16">
       <c r="A136" s="8" t="s">
         <v>16</v>
       </c>
@@ -11560,7 +11550,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="137" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:16">
       <c r="A137" s="8" t="s">
         <v>16</v>
       </c>
@@ -11608,7 +11598,7 @@
         <v>45281</v>
       </c>
     </row>
-    <row r="138" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:16">
       <c r="A138" s="8" t="s">
         <v>16</v>
       </c>
@@ -11658,7 +11648,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="139" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:16">
       <c r="A139" s="8" t="s">
         <v>16</v>
       </c>
@@ -11708,7 +11698,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="140" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:16">
       <c r="A140" s="8" t="s">
         <v>16</v>
       </c>
@@ -11758,7 +11748,7 @@
         <v>45568</v>
       </c>
     </row>
-    <row r="141" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:16">
       <c r="A141" s="8" t="s">
         <v>16</v>
       </c>
@@ -11808,7 +11798,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="142" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:16">
       <c r="A142" s="8" t="s">
         <v>16</v>
       </c>
@@ -11858,7 +11848,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="143" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:16">
       <c r="A143" s="8" t="s">
         <v>16</v>
       </c>
@@ -11908,7 +11898,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="144" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:16">
       <c r="A144" s="8" t="s">
         <v>16</v>
       </c>
@@ -11958,7 +11948,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="145" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:16">
       <c r="A145" s="8" t="s">
         <v>16</v>
       </c>
@@ -12008,7 +11998,7 @@
         <v>44145</v>
       </c>
     </row>
-    <row r="146" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:16">
       <c r="A146" s="8" t="s">
         <v>16</v>
       </c>
@@ -12058,7 +12048,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="147" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:16">
       <c r="A147" s="8" t="s">
         <v>16</v>
       </c>
@@ -12106,7 +12096,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="148" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:16">
       <c r="A148" s="8" t="s">
         <v>131</v>
       </c>
@@ -12154,7 +12144,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="149" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:16">
       <c r="A149" s="8" t="s">
         <v>131</v>
       </c>
@@ -12202,7 +12192,7 @@
         <v>44355</v>
       </c>
     </row>
-    <row r="150" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:16">
       <c r="A150" s="8" t="s">
         <v>131</v>
       </c>
@@ -12250,7 +12240,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="151" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:16">
       <c r="A151" s="8" t="s">
         <v>131</v>
       </c>
@@ -12298,7 +12288,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="152" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:16">
       <c r="A152" s="8" t="s">
         <v>131</v>
       </c>
@@ -12346,7 +12336,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="153" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:16">
       <c r="A153" s="8" t="s">
         <v>131</v>
       </c>
@@ -12394,7 +12384,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="154" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:16">
       <c r="A154" s="8" t="s">
         <v>16</v>
       </c>
@@ -12444,7 +12434,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="155" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:16">
       <c r="A155" s="8" t="s">
         <v>16</v>
       </c>
@@ -12494,7 +12484,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="156" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:16">
       <c r="A156" s="8" t="s">
         <v>16</v>
       </c>
@@ -12544,7 +12534,7 @@
         <v>43708</v>
       </c>
     </row>
-    <row r="157" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:16">
       <c r="A157" s="8" t="s">
         <v>131</v>
       </c>
@@ -12592,7 +12582,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="158" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:16">
       <c r="A158" s="8" t="s">
         <v>16</v>
       </c>
@@ -12642,7 +12632,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="159" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:16">
       <c r="A159" s="8" t="s">
         <v>16</v>
       </c>
@@ -12692,7 +12682,7 @@
         <v>44655</v>
       </c>
     </row>
-    <row r="160" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:16">
       <c r="A160" s="8" t="s">
         <v>16</v>
       </c>
@@ -12742,7 +12732,7 @@
         <v>43019</v>
       </c>
     </row>
-    <row r="161" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:16">
       <c r="A161" s="8" t="s">
         <v>16</v>
       </c>
@@ -12792,7 +12782,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="162" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:16">
       <c r="A162" s="8" t="s">
         <v>16</v>
       </c>
@@ -12842,7 +12832,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="163" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:16">
       <c r="A163" s="8" t="s">
         <v>16</v>
       </c>
@@ -12892,7 +12882,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="164" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:16">
       <c r="A164" s="8" t="s">
         <v>16</v>
       </c>
@@ -12942,7 +12932,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="165" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:16">
       <c r="A165" s="8" t="s">
         <v>16</v>
       </c>
@@ -12992,7 +12982,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="166" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:16">
       <c r="A166" s="8" t="s">
         <v>16</v>
       </c>
@@ -13042,7 +13032,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="167" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:16">
       <c r="A167" s="8" t="s">
         <v>16</v>
       </c>
@@ -13092,7 +13082,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="168" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:16">
       <c r="A168" s="8" t="s">
         <v>16</v>
       </c>
@@ -13142,7 +13132,7 @@
         <v>42886</v>
       </c>
     </row>
-    <row r="169" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:16">
       <c r="A169" s="8" t="s">
         <v>16</v>
       </c>
@@ -13192,7 +13182,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="170" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:16">
       <c r="A170" s="8" t="s">
         <v>16</v>
       </c>
@@ -13242,7 +13232,7 @@
         <v>44845</v>
       </c>
     </row>
-    <row r="171" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:16">
       <c r="A171" s="8" t="s">
         <v>16</v>
       </c>
@@ -13292,7 +13282,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="172" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:16">
       <c r="A172" s="8" t="s">
         <v>16</v>
       </c>
@@ -13342,7 +13332,7 @@
         <v>43025</v>
       </c>
     </row>
-    <row r="173" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:16">
       <c r="A173" s="8" t="s">
         <v>16</v>
       </c>
@@ -13392,7 +13382,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="174" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:16">
       <c r="A174" s="8" t="s">
         <v>16</v>
       </c>
@@ -13442,7 +13432,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="175" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:16">
       <c r="A175" s="8" t="s">
         <v>16</v>
       </c>
@@ -13492,7 +13482,7 @@
         <v>44926</v>
       </c>
     </row>
-    <row r="176" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:16">
       <c r="A176" s="8" t="s">
         <v>131</v>
       </c>
@@ -13542,7 +13532,7 @@
         <v>43683</v>
       </c>
     </row>
-    <row r="177" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:16">
       <c r="A177" s="8" t="s">
         <v>16</v>
       </c>
@@ -13592,7 +13582,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="178" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:16">
       <c r="A178" s="8" t="s">
         <v>16</v>
       </c>
@@ -13642,7 +13632,7 @@
         <v>42923</v>
       </c>
     </row>
-    <row r="179" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:16">
       <c r="A179" s="8" t="s">
         <v>131</v>
       </c>
@@ -13692,7 +13682,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="180" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:16">
       <c r="A180" s="8" t="s">
         <v>131</v>
       </c>
@@ -13742,7 +13732,7 @@
         <v>43047</v>
       </c>
     </row>
-    <row r="181" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:16">
       <c r="A181" s="8" t="s">
         <v>16</v>
       </c>
@@ -13792,7 +13782,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="182" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:16">
       <c r="A182" s="8" t="s">
         <v>16</v>
       </c>
@@ -13842,7 +13832,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="183" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:16">
       <c r="A183" s="8" t="s">
         <v>16</v>
       </c>
@@ -13892,7 +13882,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="184" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:16">
       <c r="A184" s="8" t="s">
         <v>16</v>
       </c>
@@ -13942,7 +13932,7 @@
         <v>42811</v>
       </c>
     </row>
-    <row r="185" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:16">
       <c r="A185" s="8" t="s">
         <v>16</v>
       </c>
@@ -13992,7 +13982,7 @@
         <v>43179</v>
       </c>
     </row>
-    <row r="186" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:16">
       <c r="A186" s="8" t="s">
         <v>16</v>
       </c>
@@ -14042,7 +14032,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="187" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:16">
       <c r="A187" s="8" t="s">
         <v>16</v>
       </c>
@@ -14092,7 +14082,7 @@
         <v>43071</v>
       </c>
     </row>
-    <row r="188" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:16">
       <c r="A188" s="8" t="s">
         <v>16</v>
       </c>
@@ -14140,7 +14130,7 @@
         <v>43435</v>
       </c>
     </row>
-    <row r="189" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:16">
       <c r="A189" s="8" t="s">
         <v>16</v>
       </c>
@@ -14186,7 +14176,7 @@
         <v>44377</v>
       </c>
     </row>
-    <row r="190" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:16">
       <c r="A190" s="8" t="s">
         <v>16</v>
       </c>
@@ -14236,7 +14226,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="191" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:16">
       <c r="A191" s="8" t="s">
         <v>16</v>
       </c>
@@ -14284,7 +14274,7 @@
         <v>43817</v>
       </c>
     </row>
-    <row r="192" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:16">
       <c r="A192" s="8" t="s">
         <v>16</v>
       </c>
@@ -14334,7 +14324,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="193" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:16">
       <c r="A193" s="8" t="s">
         <v>16</v>
       </c>
@@ -14382,7 +14372,7 @@
         <v>43525</v>
       </c>
     </row>
-    <row r="194" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:16">
       <c r="A194" s="8" t="s">
         <v>16</v>
       </c>
@@ -14432,7 +14422,7 @@
         <v>43406</v>
       </c>
     </row>
-    <row r="195" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:16">
       <c r="A195" s="8" t="s">
         <v>16</v>
       </c>
@@ -14482,7 +14472,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="196" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:16">
       <c r="A196" s="8" t="s">
         <v>16</v>
       </c>
@@ -14532,7 +14522,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="197" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:16">
       <c r="A197" s="8" t="s">
         <v>16</v>
       </c>
@@ -14582,7 +14572,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="198" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:16">
       <c r="A198" s="8" t="s">
         <v>16</v>
       </c>
@@ -14632,7 +14622,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="199" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:16">
       <c r="A199" s="8" t="s">
         <v>16</v>
       </c>
@@ -14682,7 +14672,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="200" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:16">
       <c r="A200" s="8" t="s">
         <v>16</v>
       </c>
@@ -14732,7 +14722,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="201" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:16">
       <c r="A201" s="8" t="s">
         <v>16</v>
       </c>
@@ -14782,7 +14772,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="202" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:16">
       <c r="A202" s="8" t="s">
         <v>131</v>
       </c>
@@ -14832,7 +14822,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="203" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:16">
       <c r="A203" s="8" t="s">
         <v>131</v>
       </c>
@@ -14882,7 +14872,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="204" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:16">
       <c r="A204" s="8" t="s">
         <v>16</v>
       </c>
@@ -14932,7 +14922,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="205" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:16">
       <c r="A205" s="8" t="s">
         <v>16</v>
       </c>
@@ -14982,7 +14972,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="206" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:16">
       <c r="A206" s="8" t="s">
         <v>16</v>
       </c>
@@ -15032,7 +15022,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="207" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:16">
       <c r="A207" s="8" t="s">
         <v>16</v>
       </c>
@@ -15082,7 +15072,7 @@
         <v>45640</v>
       </c>
     </row>
-    <row r="208" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:16">
       <c r="A208" s="8" t="s">
         <v>16</v>
       </c>
@@ -15132,7 +15122,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="209" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:16">
       <c r="A209" s="8" t="s">
         <v>16</v>
       </c>
@@ -15182,7 +15172,7 @@
         <v>45181</v>
       </c>
     </row>
-    <row r="210" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:16">
       <c r="A210" s="8" t="s">
         <v>16</v>
       </c>
@@ -15230,7 +15220,7 @@
         <v>43646</v>
       </c>
     </row>
-    <row r="211" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:16">
       <c r="A211" s="8" t="s">
         <v>16</v>
       </c>
@@ -15280,7 +15270,7 @@
         <v>43982</v>
       </c>
     </row>
-    <row r="212" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:16">
       <c r="A212" s="8" t="s">
         <v>16</v>
       </c>
@@ -15330,7 +15320,7 @@
         <v>44514</v>
       </c>
     </row>
-    <row r="213" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:16">
       <c r="A213" s="8" t="s">
         <v>16</v>
       </c>
@@ -15378,7 +15368,7 @@
         <v>44082</v>
       </c>
     </row>
-    <row r="214" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:16">
       <c r="A214" s="8" t="s">
         <v>16</v>
       </c>
@@ -15426,7 +15416,7 @@
         <v>43385</v>
       </c>
     </row>
-    <row r="215" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:16">
       <c r="A215" s="8" t="s">
         <v>16</v>
       </c>
@@ -15476,7 +15466,7 @@
         <v>44804</v>
       </c>
     </row>
-    <row r="216" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:16">
       <c r="A216" s="8" t="s">
         <v>16</v>
       </c>
@@ -15526,7 +15516,7 @@
         <v>43253</v>
       </c>
     </row>
-    <row r="217" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:16">
       <c r="A217" s="8" t="s">
         <v>16</v>
       </c>
@@ -15576,7 +15566,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="218" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:16">
       <c r="A218" s="8" t="s">
         <v>16</v>
       </c>
@@ -15626,7 +15616,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="219" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:16">
       <c r="A219" s="8" t="s">
         <v>16</v>
       </c>
@@ -15676,7 +15666,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="220" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:16">
       <c r="A220" s="8" t="s">
         <v>16</v>
       </c>
@@ -15726,7 +15716,7 @@
         <v>44578</v>
       </c>
     </row>
-    <row r="221" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:16">
       <c r="A221" s="8" t="s">
         <v>16</v>
       </c>
@@ -15774,7 +15764,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="222" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:16">
       <c r="A222" s="8" t="s">
         <v>16</v>
       </c>
@@ -15824,7 +15814,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="223" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:16">
       <c r="A223" s="8" t="s">
         <v>16</v>
       </c>
@@ -15872,7 +15862,7 @@
         <v>44582</v>
       </c>
     </row>
-    <row r="224" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:16">
       <c r="A224" s="8" t="s">
         <v>16</v>
       </c>
@@ -15922,7 +15912,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="225" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:16">
       <c r="A225" s="8" t="s">
         <v>16</v>
       </c>
@@ -15972,7 +15962,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="226" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:16">
       <c r="A226" s="8" t="s">
         <v>16</v>
       </c>
@@ -16022,7 +16012,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="227" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:16">
       <c r="A227" s="8" t="s">
         <v>131</v>
       </c>
@@ -16072,7 +16062,7 @@
         <v>43236</v>
       </c>
     </row>
-    <row r="228" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:16">
       <c r="A228" s="8" t="s">
         <v>16</v>
       </c>
@@ -16122,7 +16112,7 @@
         <v>43179</v>
       </c>
     </row>
-    <row r="229" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:16">
       <c r="A229" s="8" t="s">
         <v>16</v>
       </c>
@@ -16172,7 +16162,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="230" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:16">
       <c r="A230" s="8" t="s">
         <v>16</v>
       </c>
@@ -16222,7 +16212,7 @@
         <v>45142</v>
       </c>
     </row>
-    <row r="231" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:16">
       <c r="A231" s="8" t="s">
         <v>16</v>
       </c>
@@ -16272,7 +16262,7 @@
         <v>45196</v>
       </c>
     </row>
-    <row r="232" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:16">
       <c r="A232" s="8" t="s">
         <v>16</v>
       </c>
@@ -16320,7 +16310,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="233" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:16">
       <c r="A233" s="8" t="s">
         <v>16</v>
       </c>
@@ -16368,7 +16358,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="234" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:16">
       <c r="A234" s="8" t="s">
         <v>16</v>
       </c>
@@ -16416,7 +16406,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="235" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:16">
       <c r="A235" s="8" t="s">
         <v>131</v>
       </c>
@@ -16466,7 +16456,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="236" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:16">
       <c r="A236" s="8" t="s">
         <v>16</v>
       </c>
@@ -16516,7 +16506,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="237" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:16">
       <c r="A237" s="8" t="s">
         <v>16</v>
       </c>
@@ -16566,7 +16556,7 @@
         <v>43909</v>
       </c>
     </row>
-    <row r="238" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:16">
       <c r="A238" s="8" t="s">
         <v>16</v>
       </c>
@@ -16616,7 +16606,7 @@
         <v>45659</v>
       </c>
     </row>
-    <row r="239" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:16">
       <c r="A239" s="8" t="s">
         <v>16</v>
       </c>
@@ -16666,7 +16656,7 @@
         <v>43552</v>
       </c>
     </row>
-    <row r="240" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:16">
       <c r="A240" s="8" t="s">
         <v>16</v>
       </c>
@@ -16716,7 +16706,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="241" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:16">
       <c r="A241" s="8" t="s">
         <v>16</v>
       </c>
@@ -16766,7 +16756,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="242" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:16">
       <c r="A242" s="8" t="s">
         <v>16</v>
       </c>
@@ -16816,7 +16806,7 @@
         <v>44652</v>
       </c>
     </row>
-    <row r="243" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:16">
       <c r="A243" s="8" t="s">
         <v>16</v>
       </c>
@@ -16866,7 +16856,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="244" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:16">
       <c r="A244" s="8" t="s">
         <v>16</v>
       </c>
@@ -16916,7 +16906,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="245" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:16">
       <c r="A245" s="8" t="s">
         <v>16</v>
       </c>
@@ -16962,7 +16952,7 @@
         <v>44439</v>
       </c>
     </row>
-    <row r="246" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:16">
       <c r="A246" s="8" t="s">
         <v>16</v>
       </c>
@@ -17012,7 +17002,7 @@
         <v>44211</v>
       </c>
     </row>
-    <row r="247" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:16">
       <c r="A247" s="8" t="s">
         <v>16</v>
       </c>
@@ -17060,7 +17050,7 @@
         <v>43889</v>
       </c>
     </row>
-    <row r="248" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:16">
       <c r="A248" s="8" t="s">
         <v>16</v>
       </c>
@@ -17108,7 +17098,7 @@
         <v>43769</v>
       </c>
     </row>
-    <row r="249" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:16">
       <c r="A249" s="8" t="s">
         <v>131</v>
       </c>
@@ -17158,7 +17148,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="250" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:16">
       <c r="A250" s="8" t="s">
         <v>131</v>
       </c>
@@ -17208,7 +17198,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="251" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:16">
       <c r="A251" s="8" t="s">
         <v>131</v>
       </c>
@@ -17258,7 +17248,7 @@
         <v>45391</v>
       </c>
     </row>
-    <row r="252" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:16">
       <c r="A252" s="8" t="s">
         <v>16</v>
       </c>
@@ -17308,7 +17298,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="253" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:16">
       <c r="A253" s="8" t="s">
         <v>16</v>
       </c>
@@ -17358,7 +17348,7 @@
         <v>44104</v>
       </c>
     </row>
-    <row r="254" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:16">
       <c r="A254" s="8" t="s">
         <v>16</v>
       </c>
@@ -17408,7 +17398,7 @@
         <v>45191</v>
       </c>
     </row>
-    <row r="255" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:16">
       <c r="A255" s="8" t="s">
         <v>16</v>
       </c>
@@ -17458,7 +17448,7 @@
         <v>44498</v>
       </c>
     </row>
-    <row r="256" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:16">
       <c r="A256" s="8" t="s">
         <v>16</v>
       </c>
@@ -17508,7 +17498,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="257" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:16">
       <c r="A257" s="8" t="s">
         <v>16</v>
       </c>
@@ -17558,7 +17548,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="258" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:16">
       <c r="A258" s="8" t="s">
         <v>16</v>
       </c>
@@ -17608,7 +17598,7 @@
         <v>43500</v>
       </c>
     </row>
-    <row r="259" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:16">
       <c r="A259" s="8" t="s">
         <v>16</v>
       </c>
@@ -17658,7 +17648,7 @@
         <v>43505</v>
       </c>
     </row>
-    <row r="260" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:16">
       <c r="A260" s="8" t="s">
         <v>16</v>
       </c>
@@ -17708,7 +17698,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="261" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:16">
       <c r="A261" s="8" t="s">
         <v>16</v>
       </c>
@@ -17758,7 +17748,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="262" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:16">
       <c r="A262" s="8" t="s">
         <v>16</v>
       </c>
@@ -17806,7 +17796,7 @@
         <v>43951</v>
       </c>
     </row>
-    <row r="263" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:16">
       <c r="A263" s="8" t="s">
         <v>16</v>
       </c>
@@ -17854,7 +17844,7 @@
         <v>44316</v>
       </c>
     </row>
-    <row r="264" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:16">
       <c r="A264" s="8" t="s">
         <v>16</v>
       </c>
@@ -17904,7 +17894,7 @@
         <v>45046</v>
       </c>
     </row>
-    <row r="265" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:16">
       <c r="A265" s="8" t="s">
         <v>16</v>
       </c>
@@ -17954,7 +17944,7 @@
         <v>44817</v>
       </c>
     </row>
-    <row r="266" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:16">
       <c r="A266" s="8" t="s">
         <v>16</v>
       </c>
@@ -18004,7 +17994,7 @@
         <v>44707</v>
       </c>
     </row>
-    <row r="267" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:16">
       <c r="A267" s="8" t="s">
         <v>16</v>
       </c>
@@ -18054,7 +18044,7 @@
         <v>44328</v>
       </c>
     </row>
-    <row r="268" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:16">
       <c r="A268" s="8" t="s">
         <v>131</v>
       </c>
@@ -18104,7 +18094,7 @@
         <v>43727</v>
       </c>
     </row>
-    <row r="269" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:16">
       <c r="A269" s="8" t="s">
         <v>131</v>
       </c>
@@ -18154,7 +18144,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="270" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:16">
       <c r="A270" s="8" t="s">
         <v>16</v>
       </c>
@@ -18204,7 +18194,7 @@
         <v>44926</v>
       </c>
     </row>
-    <row r="271" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:16">
       <c r="A271" s="8" t="s">
         <v>16</v>
       </c>
@@ -18254,7 +18244,7 @@
         <v>45351</v>
       </c>
     </row>
-    <row r="272" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:16">
       <c r="A272" s="8" t="s">
         <v>16</v>
       </c>
@@ -18304,7 +18294,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="273" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:16">
       <c r="A273" s="8" t="s">
         <v>131</v>
       </c>
@@ -18354,7 +18344,7 @@
         <v>44386</v>
       </c>
     </row>
-    <row r="274" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:16">
       <c r="A274" s="8" t="s">
         <v>16</v>
       </c>
@@ -18404,7 +18394,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="275" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:16">
       <c r="A275" s="8" t="s">
         <v>16</v>
       </c>
@@ -18454,7 +18444,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="276" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:16">
       <c r="A276" s="8" t="s">
         <v>16</v>
       </c>
@@ -18504,7 +18494,7 @@
         <v>43482</v>
       </c>
     </row>
-    <row r="277" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:16">
       <c r="A277" s="8" t="s">
         <v>16</v>
       </c>
@@ -18554,7 +18544,7 @@
         <v>44607</v>
       </c>
     </row>
-    <row r="278" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:16">
       <c r="A278" s="8" t="s">
         <v>16</v>
       </c>
@@ -18604,7 +18594,7 @@
         <v>43623</v>
       </c>
     </row>
-    <row r="279" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:16">
       <c r="A279" s="8" t="s">
         <v>16</v>
       </c>
@@ -18654,7 +18644,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="280" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:16">
       <c r="A280" s="8" t="s">
         <v>16</v>
       </c>
@@ -18704,7 +18694,7 @@
         <v>44680</v>
       </c>
     </row>
-    <row r="281" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:16">
       <c r="A281" s="8" t="s">
         <v>16</v>
       </c>
@@ -18754,7 +18744,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="282" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:16">
       <c r="A282" s="8" t="s">
         <v>16</v>
       </c>
@@ -18802,7 +18792,7 @@
         <v>44799</v>
       </c>
     </row>
-    <row r="283" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:16">
       <c r="A283" s="8" t="s">
         <v>131</v>
       </c>
@@ -18852,7 +18842,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="284" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:16">
       <c r="A284" s="8" t="s">
         <v>131</v>
       </c>
@@ -18902,7 +18892,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="285" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:16">
       <c r="A285" s="8" t="s">
         <v>16</v>
       </c>
@@ -18952,7 +18942,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="286" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:16">
       <c r="A286" s="8" t="s">
         <v>16</v>
       </c>
@@ -19002,7 +18992,7 @@
         <v>44253</v>
       </c>
     </row>
-    <row r="287" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:16">
       <c r="A287" s="8" t="s">
         <v>16</v>
       </c>
@@ -19052,7 +19042,7 @@
         <v>43707</v>
       </c>
     </row>
-    <row r="288" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:16">
       <c r="A288" s="8" t="s">
         <v>16</v>
       </c>
@@ -19102,7 +19092,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="289" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:16">
       <c r="A289" s="8" t="s">
         <v>16</v>
       </c>
@@ -19152,7 +19142,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="290" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:16">
       <c r="A290" s="8" t="s">
         <v>131</v>
       </c>
@@ -19202,7 +19192,7 @@
         <v>43823</v>
       </c>
     </row>
-    <row r="291" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:16">
       <c r="A291" s="8" t="s">
         <v>16</v>
       </c>
@@ -19252,7 +19242,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="292" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:16">
       <c r="A292" s="8" t="s">
         <v>16</v>
       </c>
@@ -19300,7 +19290,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="293" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:16">
       <c r="A293" s="8" t="s">
         <v>16</v>
       </c>
@@ -19350,7 +19340,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="294" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:16">
       <c r="A294" s="8" t="s">
         <v>16</v>
       </c>
@@ -19400,7 +19390,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="295" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:16">
       <c r="A295" s="8" t="s">
         <v>16</v>
       </c>
@@ -19450,7 +19440,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="296" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:16">
       <c r="A296" s="8" t="s">
         <v>16</v>
       </c>
@@ -19498,7 +19488,7 @@
         <v>43921</v>
       </c>
     </row>
-    <row r="297" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:16">
       <c r="A297" s="8" t="s">
         <v>16</v>
       </c>
@@ -19548,7 +19538,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="298" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:16">
       <c r="A298" s="8" t="s">
         <v>16</v>
       </c>
@@ -19598,7 +19588,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="299" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:16">
       <c r="A299" s="8" t="s">
         <v>16</v>
       </c>
@@ -19648,7 +19638,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="300" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:16">
       <c r="A300" s="8" t="s">
         <v>16</v>
       </c>
@@ -19698,7 +19688,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="301" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:16">
       <c r="A301" s="8" t="s">
         <v>16</v>
       </c>
@@ -19748,7 +19738,7 @@
         <v>43918</v>
       </c>
     </row>
-    <row r="302" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:16">
       <c r="A302" s="8" t="s">
         <v>16</v>
       </c>
@@ -19798,7 +19788,7 @@
         <v>43918</v>
       </c>
     </row>
-    <row r="303" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:16">
       <c r="A303" s="8" t="s">
         <v>16</v>
       </c>
@@ -19848,7 +19838,7 @@
         <v>43921</v>
       </c>
     </row>
-    <row r="304" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:16">
       <c r="A304" s="8" t="s">
         <v>16</v>
       </c>
@@ -19896,7 +19886,7 @@
         <v>45084</v>
       </c>
     </row>
-    <row r="305" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:16">
       <c r="A305" s="8" t="s">
         <v>16</v>
       </c>
@@ -19946,7 +19936,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="306" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:16">
       <c r="A306" s="8" t="s">
         <v>16</v>
       </c>
@@ -19996,7 +19986,7 @@
         <v>44586</v>
       </c>
     </row>
-    <row r="307" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:16">
       <c r="A307" s="8" t="s">
         <v>16</v>
       </c>
@@ -20046,7 +20036,7 @@
         <v>44651</v>
       </c>
     </row>
-    <row r="308" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:16">
       <c r="A308" s="8" t="s">
         <v>131</v>
       </c>
@@ -20096,7 +20086,7 @@
         <v>44197</v>
       </c>
     </row>
-    <row r="309" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:16">
       <c r="A309" s="8" t="s">
         <v>16</v>
       </c>
@@ -20146,7 +20136,7 @@
         <v>45106</v>
       </c>
     </row>
-    <row r="310" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:16">
       <c r="A310" s="8" t="s">
         <v>16</v>
       </c>
@@ -20196,7 +20186,7 @@
         <v>44012</v>
       </c>
     </row>
-    <row r="311" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:16">
       <c r="A311" s="8" t="s">
         <v>16</v>
       </c>
@@ -20246,7 +20236,7 @@
         <v>43921</v>
       </c>
     </row>
-    <row r="312" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:16">
       <c r="A312" s="8" t="s">
         <v>16</v>
       </c>
@@ -20296,7 +20286,7 @@
         <v>45152</v>
       </c>
     </row>
-    <row r="313" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:16">
       <c r="A313" s="8" t="s">
         <v>16</v>
       </c>
@@ -20346,7 +20336,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="314" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:16">
       <c r="A314" s="8" t="s">
         <v>16</v>
       </c>
@@ -20396,7 +20386,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="315" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:16">
       <c r="A315" s="8" t="s">
         <v>16</v>
       </c>
@@ -20446,7 +20436,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="316" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:16">
       <c r="A316" s="8" t="s">
         <v>16</v>
       </c>
@@ -20496,7 +20486,7 @@
         <v>44652</v>
       </c>
     </row>
-    <row r="317" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:16">
       <c r="A317" s="8" t="s">
         <v>16</v>
       </c>
@@ -20546,7 +20536,7 @@
         <v>44602</v>
       </c>
     </row>
-    <row r="318" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:16">
       <c r="A318" s="8" t="s">
         <v>16</v>
       </c>
@@ -20596,7 +20586,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="319" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:16">
       <c r="A319" s="8" t="s">
         <v>16</v>
       </c>
@@ -20646,7 +20636,7 @@
         <v>45842</v>
       </c>
     </row>
-    <row r="320" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:16">
       <c r="A320" s="8" t="s">
         <v>16</v>
       </c>
@@ -20696,7 +20686,7 @@
         <v>43974</v>
       </c>
     </row>
-    <row r="321" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:16">
       <c r="A321" s="8" t="s">
         <v>16</v>
       </c>
@@ -20746,7 +20736,7 @@
         <v>43951</v>
       </c>
     </row>
-    <row r="322" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:16">
       <c r="A322" s="8" t="s">
         <v>16</v>
       </c>
@@ -20796,7 +20786,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="323" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:16">
       <c r="A323" s="8" t="s">
         <v>16</v>
       </c>
@@ -20846,7 +20836,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="324" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:16">
       <c r="A324" s="8" t="s">
         <v>16</v>
       </c>
@@ -20896,7 +20886,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="325" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:16">
       <c r="A325" s="8" t="s">
         <v>16</v>
       </c>
@@ -20946,7 +20936,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="326" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:16">
       <c r="A326" s="8" t="s">
         <v>16</v>
       </c>
@@ -20996,7 +20986,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="327" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:16">
       <c r="A327" s="8" t="s">
         <v>16</v>
       </c>
@@ -21046,7 +21036,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="328" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:16">
       <c r="A328" s="8" t="s">
         <v>16</v>
       </c>
@@ -21096,7 +21086,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="329" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:16">
       <c r="A329" s="8" t="s">
         <v>16</v>
       </c>
@@ -21146,7 +21136,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="330" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:16">
       <c r="A330" s="8" t="s">
         <v>16</v>
       </c>
@@ -21196,7 +21186,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="331" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:16">
       <c r="A331" s="8" t="s">
         <v>16</v>
       </c>
@@ -21246,7 +21236,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="332" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:16">
       <c r="A332" s="8" t="s">
         <v>16</v>
       </c>
@@ -21296,7 +21286,7 @@
         <v>44701</v>
       </c>
     </row>
-    <row r="333" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:16">
       <c r="A333" s="8" t="s">
         <v>16</v>
       </c>
@@ -21346,7 +21336,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="334" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:16">
       <c r="A334" s="8" t="s">
         <v>16</v>
       </c>
@@ -21394,7 +21384,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="335" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:16">
       <c r="A335" s="8" t="s">
         <v>16</v>
       </c>
@@ -21444,7 +21434,7 @@
         <v>44545</v>
       </c>
     </row>
-    <row r="336" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:16">
       <c r="A336" s="8" t="s">
         <v>16</v>
       </c>
@@ -21494,7 +21484,7 @@
         <v>44330</v>
       </c>
     </row>
-    <row r="337" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:16">
       <c r="A337" s="8" t="s">
         <v>16</v>
       </c>
@@ -21542,7 +21532,7 @@
         <v>44615</v>
       </c>
     </row>
-    <row r="338" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:16">
       <c r="A338" s="8" t="s">
         <v>16</v>
       </c>
@@ -21590,7 +21580,7 @@
         <v>45331</v>
       </c>
     </row>
-    <row r="339" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:16">
       <c r="A339" s="8" t="s">
         <v>16</v>
       </c>
@@ -21640,7 +21630,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="340" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:16">
       <c r="A340" s="8" t="s">
         <v>131</v>
       </c>
@@ -21690,7 +21680,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="341" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:16">
       <c r="A341" s="8" t="s">
         <v>16</v>
       </c>
@@ -21740,7 +21730,7 @@
         <v>44576</v>
       </c>
     </row>
-    <row r="342" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:16">
       <c r="A342" s="8" t="s">
         <v>16</v>
       </c>
@@ -21788,7 +21778,7 @@
         <v>45458</v>
       </c>
     </row>
-    <row r="343" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:16">
       <c r="A343" s="8" t="s">
         <v>131</v>
       </c>
@@ -21838,7 +21828,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="344" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:16">
       <c r="A344" s="8" t="s">
         <v>16</v>
       </c>
@@ -21888,7 +21878,7 @@
         <v>45535</v>
       </c>
     </row>
-    <row r="345" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:16">
       <c r="A345" s="8" t="s">
         <v>16</v>
       </c>
@@ -21938,7 +21928,7 @@
         <v>44577</v>
       </c>
     </row>
-    <row r="346" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:16">
       <c r="A346" s="8" t="s">
         <v>16</v>
       </c>
@@ -21988,7 +21978,7 @@
         <v>45473</v>
       </c>
     </row>
-    <row r="347" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:16">
       <c r="A347" s="8" t="s">
         <v>16</v>
       </c>
@@ -22038,7 +22028,7 @@
         <v>45637</v>
       </c>
     </row>
-    <row r="348" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:16">
       <c r="A348" s="8" t="s">
         <v>16</v>
       </c>
@@ -22088,7 +22078,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="349" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:16">
       <c r="A349" s="8" t="s">
         <v>16</v>
       </c>
@@ -22138,7 +22128,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="350" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:16">
       <c r="A350" s="8" t="s">
         <v>16</v>
       </c>
@@ -22188,7 +22178,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="351" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:16">
       <c r="A351" s="8" t="s">
         <v>16</v>
       </c>
@@ -22238,7 +22228,7 @@
         <v>44612</v>
       </c>
     </row>
-    <row r="352" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:16">
       <c r="A352" s="8" t="s">
         <v>16</v>
       </c>
@@ -22288,7 +22278,7 @@
         <v>44620</v>
       </c>
     </row>
-    <row r="353" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:16">
       <c r="A353" s="8" t="s">
         <v>16</v>
       </c>
@@ -22338,7 +22328,7 @@
         <v>45505</v>
       </c>
     </row>
-    <row r="354" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:16">
       <c r="A354" s="8" t="s">
         <v>16</v>
       </c>
@@ -22388,7 +22378,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="355" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:16">
       <c r="A355" s="8" t="s">
         <v>16</v>
       </c>
@@ -22438,7 +22428,7 @@
         <v>44712</v>
       </c>
     </row>
-    <row r="356" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:16">
       <c r="A356" s="8" t="s">
         <v>16</v>
       </c>
@@ -22488,7 +22478,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="357" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:16">
       <c r="A357" s="8" t="s">
         <v>16</v>
       </c>
@@ -22538,7 +22528,7 @@
         <v>44844</v>
       </c>
     </row>
-    <row r="358" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:16">
       <c r="A358" s="8" t="s">
         <v>16</v>
       </c>
@@ -22588,7 +22578,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="359" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:16">
       <c r="A359" s="8" t="s">
         <v>16</v>
       </c>
@@ -22638,7 +22628,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="360" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:16">
       <c r="A360" s="8" t="s">
         <v>16</v>
       </c>
@@ -22688,7 +22678,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="361" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:16">
       <c r="A361" s="8" t="s">
         <v>16</v>
       </c>
@@ -22738,7 +22728,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="362" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:16">
       <c r="A362" s="8" t="s">
         <v>16</v>
       </c>
@@ -22788,7 +22778,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="363" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:16">
       <c r="A363" s="8" t="s">
         <v>16</v>
       </c>
@@ -22838,7 +22828,7 @@
         <v>44833</v>
       </c>
     </row>
-    <row r="364" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:16">
       <c r="A364" s="8" t="s">
         <v>16</v>
       </c>
@@ -22888,7 +22878,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="365" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:16">
       <c r="A365" s="8" t="s">
         <v>16</v>
       </c>
@@ -22938,7 +22928,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="366" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:16">
       <c r="A366" s="8" t="s">
         <v>131</v>
       </c>
@@ -22988,7 +22978,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="367" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:16">
       <c r="A367" s="8" t="s">
         <v>16</v>
       </c>
@@ -23038,7 +23028,7 @@
         <v>45149</v>
       </c>
     </row>
-    <row r="368" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:16">
       <c r="A368" s="8" t="s">
         <v>16</v>
       </c>
@@ -23088,7 +23078,7 @@
         <v>44952</v>
       </c>
     </row>
-    <row r="369" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:16">
       <c r="A369" s="8" t="s">
         <v>16</v>
       </c>
@@ -23136,7 +23126,7 @@
         <v>45657</v>
       </c>
     </row>
-    <row r="370" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:16">
       <c r="A370" s="8" t="s">
         <v>16</v>
       </c>
@@ -23186,7 +23176,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="371" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:16">
       <c r="A371" s="8" t="s">
         <v>16</v>
       </c>
@@ -23236,7 +23226,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="372" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:16">
       <c r="A372" s="8" t="s">
         <v>16</v>
       </c>
@@ -23284,7 +23274,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="373" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:16">
       <c r="A373" s="8" t="s">
         <v>16</v>
       </c>
@@ -23334,7 +23324,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="374" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:16">
       <c r="A374" s="8" t="s">
         <v>16</v>
       </c>
@@ -23384,7 +23374,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="375" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:16">
       <c r="A375" s="8" t="s">
         <v>131</v>
       </c>
@@ -23434,7 +23424,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="376" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:16">
       <c r="A376" s="8" t="s">
         <v>16</v>
       </c>
@@ -23484,7 +23474,7 @@
         <v>45016</v>
       </c>
     </row>
-    <row r="377" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:16">
       <c r="A377" s="8" t="s">
         <v>131</v>
       </c>
@@ -23534,7 +23524,7 @@
         <v>45081</v>
       </c>
     </row>
-    <row r="378" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:16">
       <c r="A378" s="8" t="s">
         <v>16</v>
       </c>
@@ -23584,7 +23574,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="379" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:16">
       <c r="A379" s="8" t="s">
         <v>16</v>
       </c>
@@ -23634,7 +23624,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="380" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:16">
       <c r="A380" s="8" t="s">
         <v>16</v>
       </c>
@@ -23684,7 +23674,7 @@
         <v>45736</v>
       </c>
     </row>
-    <row r="381" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:16">
       <c r="A381" s="8" t="s">
         <v>16</v>
       </c>
@@ -23732,7 +23722,7 @@
         <v>45034</v>
       </c>
     </row>
-    <row r="382" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:16">
       <c r="A382" s="8" t="s">
         <v>16</v>
       </c>
@@ -23780,7 +23770,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="383" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:16">
       <c r="A383" s="8" t="s">
         <v>16</v>
       </c>
@@ -23830,7 +23820,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="384" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:16">
       <c r="A384" s="8" t="s">
         <v>16</v>
       </c>
@@ -23880,7 +23870,7 @@
         <v>45126</v>
       </c>
     </row>
-    <row r="385" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:16">
       <c r="A385" s="8" t="s">
         <v>16</v>
       </c>
@@ -23928,7 +23918,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="386" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:16">
       <c r="A386" s="8" t="s">
         <v>16</v>
       </c>
@@ -23978,7 +23968,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="387" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:16">
       <c r="A387" s="8" t="s">
         <v>16</v>
       </c>
@@ -24028,7 +24018,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="388" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:16">
       <c r="A388" s="8" t="s">
         <v>16</v>
       </c>
@@ -24078,7 +24068,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="389" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:16">
       <c r="A389" s="8" t="s">
         <v>16</v>
       </c>
@@ -24128,7 +24118,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="390" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:16">
       <c r="A390" s="8" t="s">
         <v>16</v>
       </c>
@@ -24178,7 +24168,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="391" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:16">
       <c r="A391" s="8" t="s">
         <v>16</v>
       </c>
@@ -24228,7 +24218,7 @@
         <v>45401</v>
       </c>
     </row>
-    <row r="392" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:16">
       <c r="A392" s="8" t="s">
         <v>16</v>
       </c>
@@ -24278,7 +24268,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="393" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:16">
       <c r="A393" s="8" t="s">
         <v>16</v>
       </c>
@@ -24328,7 +24318,7 @@
         <v>45275</v>
       </c>
     </row>
-    <row r="394" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:16">
       <c r="A394" s="8" t="s">
         <v>16</v>
       </c>
@@ -24376,7 +24366,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="395" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:16">
       <c r="A395" s="8" t="s">
         <v>16</v>
       </c>
@@ -24426,7 +24416,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="396" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:16">
       <c r="A396" s="8" t="s">
         <v>16</v>
       </c>
@@ -24474,7 +24464,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="397" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:16">
       <c r="A397" s="8" t="s">
         <v>16</v>
       </c>
@@ -24524,7 +24514,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="398" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:16">
       <c r="A398" s="8" t="s">
         <v>16</v>
       </c>
@@ -24574,7 +24564,7 @@
         <v>45350</v>
       </c>
     </row>
-    <row r="399" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:16">
       <c r="A399" s="8" t="s">
         <v>16</v>
       </c>
@@ -24624,7 +24614,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="400" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:16">
       <c r="A400" s="8" t="s">
         <v>16</v>
       </c>
@@ -24674,7 +24664,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="401" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:16">
       <c r="A401" s="8" t="s">
         <v>16</v>
       </c>
@@ -24724,7 +24714,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="402" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:16">
       <c r="A402" s="8" t="s">
         <v>16</v>
       </c>
@@ -24774,7 +24764,7 @@
         <v>45352</v>
       </c>
     </row>
-    <row r="403" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="403" spans="1:16">
       <c r="A403" s="8" t="s">
         <v>16</v>
       </c>
@@ -24824,7 +24814,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="404" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="404" spans="1:16">
       <c r="A404" s="8" t="s">
         <v>16</v>
       </c>
@@ -24874,7 +24864,7 @@
         <v>45382</v>
       </c>
     </row>
-    <row r="405" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:16">
       <c r="A405" s="8" t="s">
         <v>131</v>
       </c>
@@ -24924,7 +24914,7 @@
         <v>45390</v>
       </c>
     </row>
-    <row r="406" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="406" spans="1:16">
       <c r="A406" s="8" t="s">
         <v>16</v>
       </c>
@@ -24972,7 +24962,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="407" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="407" spans="1:16">
       <c r="A407" s="8" t="s">
         <v>16</v>
       </c>
@@ -25020,7 +25010,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="408" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="408" spans="1:16">
       <c r="A408" s="8" t="s">
         <v>16</v>
       </c>
@@ -25070,7 +25060,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="409" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="409" spans="1:16">
       <c r="A409" s="8" t="s">
         <v>16</v>
       </c>
@@ -25120,7 +25110,7 @@
         <v>45474</v>
       </c>
     </row>
-    <row r="410" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="410" spans="1:16">
       <c r="A410" s="8" t="s">
         <v>16</v>
       </c>
@@ -25170,7 +25160,7 @@
         <v>46388</v>
       </c>
     </row>
-    <row r="411" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="411" spans="1:16">
       <c r="A411" s="8" t="s">
         <v>16</v>
       </c>
@@ -25220,7 +25210,7 @@
         <v>45428</v>
       </c>
     </row>
-    <row r="412" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="412" spans="1:16">
       <c r="A412" s="8" t="s">
         <v>16</v>
       </c>
@@ -25270,7 +25260,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="413" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="413" spans="1:16">
       <c r="A413" s="8" t="s">
         <v>16</v>
       </c>
@@ -25320,7 +25310,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="414" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="414" spans="1:16">
       <c r="A414" s="8" t="s">
         <v>16</v>
       </c>
@@ -25370,7 +25360,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="415" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="415" spans="1:16">
       <c r="A415" s="8" t="s">
         <v>16</v>
       </c>
@@ -25420,7 +25410,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="416" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="416" spans="1:16">
       <c r="A416" s="8" t="s">
         <v>16</v>
       </c>
@@ -25470,7 +25460,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="417" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="417" spans="1:16">
       <c r="A417" s="8" t="s">
         <v>16</v>
       </c>
@@ -25520,7 +25510,7 @@
         <v>45979</v>
       </c>
     </row>
-    <row r="418" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="418" spans="1:16">
       <c r="A418" s="8" t="s">
         <v>16</v>
       </c>
@@ -25568,7 +25558,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="419" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="419" spans="1:16">
       <c r="A419" s="8" t="s">
         <v>16</v>
       </c>
@@ -25618,7 +25608,7 @@
         <v>45634</v>
       </c>
     </row>
-    <row r="420" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="420" spans="1:16">
       <c r="A420" s="8" t="s">
         <v>16</v>
       </c>
@@ -25668,7 +25658,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="421" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="421" spans="1:16">
       <c r="A421" s="8" t="s">
         <v>16</v>
       </c>
@@ -25716,7 +25706,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="422" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="422" spans="1:16">
       <c r="A422" s="8" t="s">
         <v>16</v>
       </c>
@@ -25764,7 +25754,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="423" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="423" spans="1:16">
       <c r="A423" s="8" t="s">
         <v>16</v>
       </c>
@@ -25814,7 +25804,7 @@
         <v>45435</v>
       </c>
     </row>
-    <row r="424" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="424" spans="1:16">
       <c r="A424" s="8" t="s">
         <v>16</v>
       </c>
@@ -25864,7 +25854,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="425" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="425" spans="1:16">
       <c r="A425" s="8" t="s">
         <v>16</v>
       </c>
@@ -25914,7 +25904,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="426" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="426" spans="1:16">
       <c r="A426" s="8" t="s">
         <v>16</v>
       </c>
@@ -25964,7 +25954,7 @@
         <v>45608</v>
       </c>
     </row>
-    <row r="427" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="427" spans="1:16">
       <c r="A427" s="8" t="s">
         <v>16</v>
       </c>
@@ -26012,7 +26002,7 @@
         <v>45650</v>
       </c>
     </row>
-    <row r="428" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="428" spans="1:16">
       <c r="A428" s="8" t="s">
         <v>16</v>
       </c>
@@ -26062,7 +26052,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="429" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="429" spans="1:16">
       <c r="A429" s="8" t="s">
         <v>16</v>
       </c>
@@ -26112,7 +26102,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="430" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="430" spans="1:16">
       <c r="A430" s="8" t="s">
         <v>16</v>
       </c>
@@ -26162,7 +26152,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="431" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="431" spans="1:16">
       <c r="A431" s="8" t="s">
         <v>16</v>
       </c>
@@ -26210,7 +26200,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="432" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="432" spans="1:16">
       <c r="A432" s="8" t="s">
         <v>16</v>
       </c>
@@ -26260,7 +26250,7 @@
         <v>45602</v>
       </c>
     </row>
-    <row r="433" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="433" spans="1:16">
       <c r="A433" s="8" t="s">
         <v>16</v>
       </c>
@@ -26310,7 +26300,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="434" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="434" spans="1:16">
       <c r="A434" s="8" t="s">
         <v>16</v>
       </c>
@@ -26360,7 +26350,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="435" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="435" spans="1:16">
       <c r="A435" s="8" t="s">
         <v>16</v>
       </c>
@@ -26410,7 +26400,7 @@
         <v>45653</v>
       </c>
     </row>
-    <row r="436" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="436" spans="1:16">
       <c r="A436" s="8" t="s">
         <v>16</v>
       </c>
@@ -26460,7 +26450,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="437" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="437" spans="1:16">
       <c r="A437" s="8" t="s">
         <v>131</v>
       </c>
@@ -26510,7 +26500,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="438" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="438" spans="1:16">
       <c r="A438" s="8" t="s">
         <v>16</v>
       </c>
@@ -26560,7 +26550,7 @@
         <v>45657</v>
       </c>
     </row>
-    <row r="439" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="439" spans="1:16">
       <c r="A439" s="8" t="s">
         <v>16</v>
       </c>
@@ -26610,7 +26600,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="440" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="440" spans="1:16">
       <c r="A440" s="8" t="s">
         <v>16</v>
       </c>
@@ -26658,7 +26648,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="441" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="441" spans="1:16">
       <c r="A441" s="8" t="s">
         <v>16</v>
       </c>
@@ -26706,7 +26696,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="442" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="442" spans="1:16">
       <c r="A442" s="8" t="s">
         <v>16</v>
       </c>
@@ -26756,7 +26746,7 @@
         <v>45805</v>
       </c>
     </row>
-    <row r="443" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="443" spans="1:16">
       <c r="A443" s="8" t="s">
         <v>16</v>
       </c>
@@ -26806,7 +26796,7 @@
         <v>45716</v>
       </c>
     </row>
-    <row r="444" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="444" spans="1:16">
       <c r="A444" s="8" t="s">
         <v>16</v>
       </c>
@@ -26856,7 +26846,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="445" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="445" spans="1:16">
       <c r="A445" s="8" t="s">
         <v>16</v>
       </c>
@@ -26906,7 +26896,7 @@
         <v>45859</v>
       </c>
     </row>
-    <row r="446" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="446" spans="1:16">
       <c r="A446" s="8" t="s">
         <v>16</v>
       </c>
@@ -26956,7 +26946,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="447" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="447" spans="1:16">
       <c r="A447" s="8" t="s">
         <v>131</v>
       </c>
@@ -27006,7 +26996,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="448" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="448" spans="1:16">
       <c r="A448" s="8" t="s">
         <v>131</v>
       </c>
@@ -27056,7 +27046,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="449" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="449" spans="1:16">
       <c r="A449" s="8" t="s">
         <v>131</v>
       </c>
@@ -27106,7 +27096,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="450" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="450" spans="1:16">
       <c r="A450" s="8" t="s">
         <v>16</v>
       </c>
@@ -27156,7 +27146,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="451" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="451" spans="1:16">
       <c r="A451" s="8" t="s">
         <v>16</v>
       </c>
@@ -27206,7 +27196,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="452" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="452" spans="1:16">
       <c r="A452" s="8" t="s">
         <v>16</v>
       </c>
@@ -27256,7 +27246,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="453" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="453" spans="1:16">
       <c r="A453" s="8" t="s">
         <v>131</v>
       </c>
@@ -27306,7 +27296,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="454" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="454" spans="1:16">
       <c r="A454" s="8" t="s">
         <v>16</v>
       </c>
@@ -27356,7 +27346,7 @@
         <v>45904</v>
       </c>
     </row>
-    <row r="455" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="455" spans="1:16">
       <c r="A455" s="8" t="s">
         <v>16</v>
       </c>
@@ -27406,7 +27396,7 @@
         <v>45923</v>
       </c>
     </row>
-    <row r="456" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="456" spans="1:16">
       <c r="A456" s="8" t="s">
         <v>16</v>
       </c>
@@ -27456,7 +27446,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="457" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="457" spans="1:16">
       <c r="A457" s="8" t="s">
         <v>16</v>
       </c>
@@ -27506,7 +27496,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="458" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="458" spans="1:16">
       <c r="A458" s="8" t="s">
         <v>16</v>
       </c>
@@ -27556,7 +27546,7 @@
         <v>45798</v>
       </c>
     </row>
-    <row r="459" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="459" spans="1:16">
       <c r="A459" s="8" t="s">
         <v>16</v>
       </c>
@@ -27606,7 +27596,7 @@
         <v>45936</v>
       </c>
     </row>
-    <row r="460" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="460" spans="1:16">
       <c r="A460" s="8" t="s">
         <v>16</v>
       </c>
@@ -27656,7 +27646,7 @@
         <v>45965</v>
       </c>
     </row>
-    <row r="461" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="461" spans="1:16">
       <c r="A461" s="8" t="s">
         <v>16</v>
       </c>
@@ -27706,7 +27696,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="462" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="462" spans="1:16">
       <c r="A462" s="8" t="s">
         <v>16</v>
       </c>
@@ -27763,4 +27753,18 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E47D01CD-B7D9-4F8E-84FD-F92C4283F689}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:C1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13.5"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>